--- a/templates/db_info_diff.xlsx
+++ b/templates/db_info_diff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18000" windowHeight="8295" tabRatio="929" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="18000" windowHeight="8295" tabRatio="929" firstSheet="2" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="11" r:id="rId1"/>
@@ -18,6 +18,10 @@
     <sheet name="v_o_in_db2" sheetId="8" r:id="rId9"/>
     <sheet name="cmn_v" sheetId="9" r:id="rId10"/>
     <sheet name="dif_v" sheetId="10" r:id="rId11"/>
+    <sheet name="p_o_in_db1" sheetId="12" r:id="rId12"/>
+    <sheet name="p_o_in_db2" sheetId="13" r:id="rId13"/>
+    <sheet name="cmn_p" sheetId="14" r:id="rId14"/>
+    <sheet name="dif_p" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
   <si>
     <t>两个数据库比对差异差异化信息</t>
   </si>
@@ -111,25 +115,25 @@
     <t>两个DB中结构有差异的视图及定义信息</t>
   </si>
   <si>
-    <t>prc_o_in_db1</t>
+    <t>p_o_in_db1</t>
   </si>
   <si>
     <t>仅存在于DB1中的存储过程</t>
   </si>
   <si>
-    <t>prc_o_in_db2</t>
+    <t>p_o_in_db2</t>
   </si>
   <si>
     <t>仅存在于DB2中的存储过程</t>
   </si>
   <si>
-    <t>cmn_prc</t>
+    <t>cmn_p</t>
   </si>
   <si>
     <t>两个DB中结构相同的存储过程</t>
   </si>
   <si>
-    <t>dif_prc</t>
+    <t>dif_p</t>
   </si>
   <si>
     <t>两个DB中结构有差异的存储过程及定义信息</t>
@@ -154,6 +158,36 @@
   </si>
   <si>
     <t>外键差异</t>
+  </si>
+  <si>
+    <t>列名</t>
+  </si>
+  <si>
+    <t>DB1</t>
+  </si>
+  <si>
+    <t>DB2</t>
+  </si>
+  <si>
+    <t>索引名</t>
+  </si>
+  <si>
+    <t>外鍵名</t>
+  </si>
+  <si>
+    <t>视图名</t>
+  </si>
+  <si>
+    <t>定义</t>
+  </si>
+  <si>
+    <t>db1</t>
+  </si>
+  <si>
+    <t>db2</t>
+  </si>
+  <si>
+    <t>存储过程名</t>
   </si>
 </sst>
 </file>
@@ -560,7 +594,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -587,6 +621,17 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -733,7 +778,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -745,34 +790,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -857,41 +902,53 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1431,7 +1488,7 @@
   <dimension ref="B2:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.1" outlineLevelCol="2"/>
@@ -1442,138 +1499,138 @@
   </cols>
   <sheetData>
     <row r="2" ht="35" customHeight="1" spans="2:3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" ht="22" customHeight="1" spans="2:3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" ht="16" customHeight="1" spans="2:3">
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
     </row>
     <row r="5" ht="17.25" spans="2:3">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="2:3">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="2:3">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="2:3">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="2:3">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="2:3">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="2:3">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="2:3">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="2:3">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="2:3">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="2:3">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="2:3">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="2:3">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1" spans="2:3">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="2:3">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="18" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1591,14 +1648,27 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.1"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="20.1150442477876" customWidth="1"/>
+    <col min="2" max="2" width="57.0176991150442" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="40" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1607,14 +1677,173 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.1"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.1" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="15.4070796460177" customWidth="1"/>
+    <col min="2" max="2" width="48.6548672566372" customWidth="1"/>
+    <col min="3" max="3" width="54.9026548672566" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36" customHeight="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" ht="30" customHeight="1" spans="1:3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="17.929203539823" customWidth="1"/>
+    <col min="2" max="2" width="76.3362831858407" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="22.7699115044248" customWidth="1"/>
+    <col min="2" max="2" width="45.070796460177" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="15.8672566371681" customWidth="1"/>
+    <col min="2" max="2" width="31.7345132743363" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.1" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="24.9026548672566" customWidth="1"/>
+    <col min="2" max="2" width="56.7522123893805" customWidth="1"/>
+    <col min="3" max="3" width="28.5486725663717" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1625,8 +1854,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.1" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1637,20 +1866,20 @@
   </cols>
   <sheetData>
     <row r="1" ht="29" customHeight="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" ht="15.35" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1666,35 +1895,40 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.1" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.1" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="49.1238938053097" customWidth="1"/>
-    <col min="2" max="2" width="17.929203539823" customWidth="1"/>
+    <col min="2" max="2" width="23.7079646017699" customWidth="1"/>
+    <col min="3" max="3" width="35.1238938053097" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" customHeight="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="29" customHeight="1" spans="1:3">
+      <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" ht="15.35" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" ht="15.35" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1707,7 +1941,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.1" outlineLevelCol="1"/>
@@ -1717,10 +1951,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.35" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1736,7 +1970,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.1" outlineLevelCol="1"/>
@@ -1745,10 +1979,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.35" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1764,7 +1998,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.1" outlineLevelCol="1"/>
@@ -1774,10 +2008,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.35" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1790,35 +2024,77 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="30.9380530973451" customWidth="1"/>
-    <col min="2" max="2" width="28.4070796460177" customWidth="1"/>
-    <col min="3" max="3" width="28.1504424778761" customWidth="1"/>
-    <col min="4" max="4" width="31.7964601769912" customWidth="1"/>
+    <col min="1" max="3" width="30.9380530973451" customWidth="1"/>
+    <col min="4" max="6" width="28.4070796460177" customWidth="1"/>
+    <col min="7" max="9" width="28.1504424778761" customWidth="1"/>
+    <col min="10" max="10" width="31.7964601769912" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="24" customHeight="1" spans="1:10">
+      <c r="A1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="7" t="s">
         <v>38</v>
       </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" ht="15.35" spans="1:10">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1827,14 +2103,27 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.1"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="32.6637168141593" customWidth="1"/>
+    <col min="2" max="2" width="46.6017699115044" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1843,14 +2132,27 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.1"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.7256637168142" customWidth="1"/>
+    <col min="2" max="2" width="74.6725663716814" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
